--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oooakip/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Список товаров" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -582,7 +578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>uuid</t>
   </si>
@@ -635,9 +631,6 @@
     <t>barCodes</t>
   </si>
   <si>
-    <t>f0a61235-7ae0-40ae-b1c8-558b3eeaefa2</t>
-  </si>
-  <si>
     <t>Кондиционер ELEKTA</t>
   </si>
   <si>
@@ -653,12 +646,6 @@
     <t>СТ-888</t>
   </si>
   <si>
-    <t>15a50e6e-cb70-400f-b002-1385edd739e0</t>
-  </si>
-  <si>
-    <t>05306fd1-e9ac-464d-9544-338f50d3cc65</t>
-  </si>
-  <si>
     <t>Вентилятор ОРБИТА,STERLING,ЯП.</t>
   </si>
   <si>
@@ -711,13 +698,43 @@
   </si>
   <si>
     <t>SERVICE</t>
+  </si>
+  <si>
+    <t>712bcec4-7bea-11e8-9bf8-6922dc5227b2</t>
+  </si>
+  <si>
+    <t>cc26abb5-7bea-11e8-9bf8-87beeafd1341</t>
+  </si>
+  <si>
+    <t>cc26d2c6-7bea-11e8-9bf8-21eae3fbe79a</t>
+  </si>
+  <si>
+    <t>3dd38e1f-7a54-4185-8fcc-ee5eb724bdc4</t>
+  </si>
+  <si>
+    <t>0979b297-7bf3-11e8-9751-9971a46625eb</t>
+  </si>
+  <si>
+    <t>097c71b8-7bf3-11e8-9751-ddf0b9d7ecdf</t>
+  </si>
+  <si>
+    <t>0a7f103d-ff86-4f6a-8d3c-17081e1e8ced</t>
+  </si>
+  <si>
+    <t>9e4ba31e-f260-4621-9879-f79d63448974</t>
+  </si>
+  <si>
+    <t>d43866bc-f493-4b1e-b3f2-afe5cece4edb</t>
+  </si>
+  <si>
+    <t>7cdbe5ee-12d3-401a-a457-7d81e4c26b7e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -835,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -870,6 +887,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -995,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,7 +1048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1238,36 +1256,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="31" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="31" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="9" customWidth="1"/>
     <col min="14" max="14" width="8" style="9" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="31" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="11" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="31" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="11" customWidth="1"/>
     <col min="18" max="18" width="21" style="11" customWidth="1"/>
     <col min="19" max="19" width="12" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>3</v>
@@ -1314,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>13</v>
@@ -1326,10 +1344,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:19">
+      <c r="A2" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -1359,10 +1379,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:19">
+      <c r="A3" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1370,8 +1392,8 @@
       <c r="D3" s="3">
         <v>101</v>
       </c>
-      <c r="E3" s="3">
-        <v>10</v>
+      <c r="E3" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="3"/>
@@ -1394,10 +1416,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:19">
+      <c r="A4" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="B4" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -1405,11 +1429,11 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>101</v>
+      <c r="E4" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>18</v>
@@ -1419,10 +1443,10 @@
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="7">
         <v>4695</v>
@@ -1434,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="12">
@@ -1447,10 +1471,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:19">
+      <c r="A5" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" s="26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1458,11 +1484,11 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="34">
         <v>101</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <v>18</v>
@@ -1472,10 +1498,10 @@
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7">
         <v>1424</v>
@@ -1487,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="15">
@@ -1500,10 +1526,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:19">
+      <c r="A6" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -1511,7 +1539,9 @@
       <c r="D6" s="21">
         <v>102</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="27"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -1533,10 +1563,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:19">
+      <c r="A7" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1544,11 +1576,11 @@
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
-        <v>102</v>
+      <c r="E7" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4">
         <v>18</v>
@@ -1558,10 +1590,10 @@
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="8">
         <v>18000</v>
@@ -1573,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="15">
@@ -1586,12 +1618,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>23</v>
+    <row r="8" spans="1:19">
+      <c r="A8" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="19">
         <v>1</v>
@@ -1621,24 +1653,24 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>17</v>
+    <row r="9" spans="1:19">
+      <c r="A9" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="E9" s="34">
         <v>20</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
@@ -1649,7 +1681,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L9" s="13">
         <v>250</v>
@@ -1672,12 +1704,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>24</v>
+    <row r="10" spans="1:19">
+      <c r="A10" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12">
         <v>0</v>
@@ -1685,11 +1717,11 @@
       <c r="D10" s="12">
         <v>5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="34">
         <v>20</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
@@ -1700,7 +1732,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L10" s="13">
         <v>45.5</v>
@@ -1723,10 +1755,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:19">
+      <c r="A11" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="B11" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1745,7 +1779,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L11" s="8">
         <v>1000</v>
@@ -1765,4 +1799,16 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>